--- a/name_dist_return.xlsx
+++ b/name_dist_return.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarthf\Documents\ANNs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>Sam</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,50 +110,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>nomnomnom</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>nomnomnom</t>
-  </si>
-  <si>
-    <t>Doug</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Jessica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -158,12 +154,18 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,14 +180,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -508,356 +521,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>230</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>224</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>500</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>321</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>121</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>154</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>113</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
